--- a/biology/Médecine/Névrite/Névrite.xlsx
+++ b/biology/Médecine/Névrite/Névrite.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>N%C3%A9vrite</t>
+          <t>Névrite</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une névrite désigne une lésion inflammatoire d'un nerf, généralement périphérique. On utilisera plus volontiers le terme de neuropathie inflammatoire. Le terme « névrite » est quasiment limité à l'évocation de la « névrite optique ». Il s'agit d'une inflammation du nerf optique qui peut être de plusieurs origines. Le plus fréquemment idiopathique, elle est associée dans 20 % des cas à une sclérose en plaques. La fréquence de cette association justifie la réalisation d'une Imagerie par Résonance Magnétique (IRM) afin d'exclure la présence de lésions typiques de sclérose en plaques.
 Des vertiges durant plusieurs jours peuvent signer une névrite vestibulaire, inflammation d'origine indéterminée qui touche l'oreille interne (organe de l'équilibre et/ou appareil de l'audition). Le traitement est à base de corticoïdes. 
